--- a/verifiche/Montanari.xlsx
+++ b/verifiche/Montanari.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anastasia.montanari_\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{511CE0C7-7EA5-4639-BD55-450633B8A557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84736F54-2907-43D7-BFB8-672000DAEE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{BAB278E2-4423-45D4-AC04-5DA6F6AE8D0C}"/>
   </bookViews>
@@ -39,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
   <si>
     <t>Nome</t>
   </si>
@@ -340,6 +362,12 @@
   </si>
   <si>
     <t>Quante celle vuote ci sono nella colonna "Bonus (€)".</t>
+  </si>
+  <si>
+    <t>Anastasia</t>
+  </si>
+  <si>
+    <t>Montanari</t>
   </si>
 </sst>
 </file>
@@ -749,15 +777,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>72027</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152799</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>477774</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -780,8 +808,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8305800" y="4248150"/>
-          <a:ext cx="1996077" cy="1219599"/>
+          <a:off x="8505825" y="3810000"/>
+          <a:ext cx="3554349" cy="2171700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1156,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AC0A4A-9ADA-4349-8221-09726CE7817A}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1171,11 +1199,15 @@
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="H2" s="19" t="s">
@@ -1241,7 +1273,10 @@
       <c r="H6" s="1">
         <v>500</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4" t="str">
+        <f>IF(H6&gt;$I$2,"SI")</f>
+        <v>SI</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
@@ -1259,7 +1294,10 @@
         <v>8500</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4" t="b">
+        <f t="shared" ref="I7:I11" si="0">IF(H7&gt;$I$2,"SI")</f>
+        <v>0</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
@@ -1279,7 +1317,10 @@
       <c r="H8" s="1">
         <v>300</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
@@ -1299,7 +1340,10 @@
       <c r="H9" s="1">
         <v>700</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>SI</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
@@ -1319,7 +1363,10 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
@@ -1339,7 +1386,10 @@
       <c r="H11" s="1">
         <v>600</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>SI</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
@@ -1347,19 +1397,26 @@
       <c r="D15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="4">
+        <f>COUNTIF(E6:E11,"Vendite")</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="4:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="4:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="5" t="s">
@@ -1371,7 +1428,10 @@
       <c r="D19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4">
+        <f>COUNTIF(G6:G11,G7)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="4:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="5" t="s">
@@ -1410,11 +1470,15 @@
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" s="17" t="s">
@@ -1448,14 +1512,38 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="C6" s="4">
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:J6" ca="1" si="0">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="15" t="s">
@@ -1476,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4F23AC-983A-4505-A498-28C005022607}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1491,11 +1579,15 @@
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1716,7 +1808,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,11 +1821,15 @@
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="26" t="s">
@@ -1985,15 +2081,42 @@
       <c r="C13" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
+      <c r="D13" s="16">
+        <f>SUM(D6:D12)</f>
+        <v>56.099999999999994</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" ref="E13:K13" si="0">SUM(E6:E12)</f>
+        <v>79.199999999999989</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="0"/>
+        <v>89.2</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" si="0"/>
+        <v>107.19999999999999</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="0"/>
+        <v>57.600000000000009</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" si="0"/>
+        <v>61.5</v>
+      </c>
+      <c r="J13" s="16">
+        <f t="shared" si="0"/>
+        <v>80.7</v>
+      </c>
+      <c r="K13" s="16">
+        <f t="shared" si="0"/>
+        <v>45.5</v>
+      </c>
+      <c r="L13" s="16">
+        <f>SUM(D13:K13)</f>
+        <v>577</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="15" t="s">
@@ -2012,20 +2135,47 @@
       <c r="C15" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="D15" s="16">
+        <f>AVERAGE(D6:D12)</f>
+        <v>8.0142857142857142</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" ref="E15:K15" si="1">AVERAGE(E6:E12)</f>
+        <v>11.314285714285713</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="1"/>
+        <v>12.742857142857144</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" si="1"/>
+        <v>15.314285714285713</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="1"/>
+        <v>8.2285714285714295</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" si="1"/>
+        <v>8.7857142857142865</v>
+      </c>
+      <c r="J15" s="16">
+        <f t="shared" si="1"/>
+        <v>11.528571428571428</v>
+      </c>
+      <c r="K15" s="16">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="16" cm="1">
+        <f t="array" ref="D16">COUNTIF(D6:D12,esercizio5!B1A esercizio5!B1)</f>
+        <v>0</v>
+      </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -2047,7 +2197,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,11 +2206,15 @@
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2087,51 +2241,99 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="16">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
       <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="16">
+        <v>1</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
       <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
       <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
       <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="B15" s="16">
+        <v>0</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
       <c r="E15" s="16"/>
     </row>
   </sheetData>
